--- a/flight_data/data-2025/received_labeled.xlsx
+++ b/flight_data/data-2025/received_labeled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/begreen/git/side_projects/fundusz/fundusz-balon-2025/flight_data/data-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526CA382-F486-FB43-83E4-8CEA459CF27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B56D45-17A8-EA4C-849A-6D81CD3C87BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{069AE8E1-3EF1-42C9-8B1E-B097ECA4D078}"/>
   </bookViews>
@@ -932,7 +932,7 @@
   <dimension ref="A1:J1142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/flight_data/data-2025/received_labeled.xlsx
+++ b/flight_data/data-2025/received_labeled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/begreen/git/side_projects/fundusz/fundusz-balon-2025/flight_data/data-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B56D45-17A8-EA4C-849A-6D81CD3C87BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9694CBA7-835E-904C-9B37-1E14AF278A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{069AE8E1-3EF1-42C9-8B1E-B097ECA4D078}"/>
   </bookViews>
@@ -932,7 +932,7 @@
   <dimension ref="A1:J1142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -941,7 +941,7 @@
     <col min="2" max="2" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
